--- a/patient_data/patient_14.xlsx
+++ b/patient_data/patient_14.xlsx
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1611,13 +1611,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1682,19 +1682,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1842,13 +1842,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1919,13 +1919,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2171,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2325,13 +2325,13 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
